--- a/assets/findings/2024-03-08-findings.xlsx
+++ b/assets/findings/2024-03-08-findings.xlsx
@@ -638,8 +638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -671,8 +673,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -737,8 +741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -770,8 +776,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -836,8 +844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -869,8 +879,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -935,8 +947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -968,8 +982,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1034,8 +1050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1067,8 +1085,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1133,8 +1153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1166,8 +1188,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1232,8 +1256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1265,8 +1291,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1331,8 +1359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1364,8 +1394,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1430,8 +1462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1463,8 +1497,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1529,8 +1565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1562,8 +1600,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1628,8 +1668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1661,8 +1703,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1727,8 +1771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1760,8 +1806,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1826,8 +1874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1859,8 +1909,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2108,8 +2160,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>63433522</v>
@@ -2144,8 +2198,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2210,8 +2266,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>167863241</v>
@@ -2246,8 +2304,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2312,8 +2372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>48767811</v>
@@ -2348,8 +2410,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2414,8 +2478,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>10637424</v>
@@ -2450,8 +2516,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2516,8 +2584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>239099</v>
@@ -2552,8 +2622,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2618,8 +2690,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N7" t="n">
         <v>163788</v>
@@ -2654,8 +2728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -2720,8 +2796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v>-87891</v>
@@ -2756,8 +2834,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2822,8 +2902,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>27910</v>
@@ -2858,8 +2940,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2924,8 +3008,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>-9777</v>
@@ -2960,8 +3046,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3026,8 +3114,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>698469</v>
@@ -3062,8 +3152,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3128,8 +3220,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>3794392</v>
@@ -3164,8 +3258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3230,8 +3326,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>1149321</v>
@@ -3266,8 +3364,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3513,8 +3613,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3546,8 +3648,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3612,8 +3716,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3645,8 +3751,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3711,8 +3819,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3744,8 +3854,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3810,8 +3922,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3843,8 +3957,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3909,8 +4025,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3942,8 +4060,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4008,8 +4128,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -4041,8 +4163,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -4107,8 +4231,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -4140,8 +4266,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -4206,8 +4334,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -4239,8 +4369,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -4305,8 +4437,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -4338,8 +4472,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -4404,8 +4540,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -4437,8 +4575,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -4503,8 +4643,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -4536,8 +4678,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -4602,8 +4746,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4635,8 +4781,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -4701,8 +4849,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4734,8 +4884,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -4800,8 +4952,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -4833,8 +4987,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -4899,8 +5055,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -4932,8 +5090,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -4998,8 +5158,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -5031,8 +5193,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -5097,8 +5261,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -5130,8 +5296,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -5196,8 +5364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -5229,8 +5399,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -5295,8 +5467,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -5328,8 +5502,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -5394,8 +5570,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -5427,8 +5605,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -5493,8 +5673,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -5526,8 +5708,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -5592,8 +5776,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -5625,8 +5811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -5691,8 +5879,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -5724,8 +5914,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -5790,8 +5982,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -5823,8 +6017,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -5889,8 +6085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -5922,8 +6120,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -5988,8 +6188,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -6021,8 +6223,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -6087,8 +6291,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -6120,8 +6326,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -6397,8 +6605,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>1719516</v>
@@ -6433,8 +6643,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6499,8 +6711,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>-43207</v>
@@ -6535,8 +6749,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6762,8 +6978,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>46837</v>
@@ -6798,8 +7016,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6864,8 +7084,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -6897,8 +7119,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6963,8 +7187,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -6996,8 +7222,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7225,8 +7453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>254000</v>
@@ -7261,8 +7491,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7327,8 +7559,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7360,8 +7594,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7426,8 +7662,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>4678397</v>
@@ -7462,8 +7700,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7528,8 +7768,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>1000716</v>
@@ -7564,8 +7806,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7795,8 +8039,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -7828,8 +8074,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7894,8 +8142,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7927,8 +8177,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7993,8 +8245,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -8026,8 +8280,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -8092,8 +8348,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -8125,8 +8383,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -8191,8 +8451,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -8224,8 +8486,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -8290,8 +8554,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -8323,8 +8589,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -8389,8 +8657,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -8422,8 +8692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -8488,8 +8760,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -8521,8 +8795,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -8587,8 +8863,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -8620,8 +8898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -8686,8 +8966,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -8719,8 +9001,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -8785,8 +9069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -8818,8 +9104,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -8884,8 +9172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -8917,8 +9207,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -8983,8 +9275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -9016,8 +9310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -9082,8 +9378,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -9115,8 +9413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -9181,8 +9481,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -9214,8 +9516,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -9280,8 +9584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -9313,8 +9619,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -9379,8 +9687,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -9412,8 +9722,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -9478,8 +9790,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -9511,8 +9825,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -9577,8 +9893,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -9610,8 +9928,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -9676,8 +9996,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -9709,8 +10031,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -9775,8 +10099,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -9808,8 +10134,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -9874,8 +10202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -9907,8 +10237,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -9973,8 +10305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -10006,8 +10340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -10072,8 +10408,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -10105,8 +10443,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -10171,8 +10511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -10204,8 +10546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -10270,8 +10614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -10303,8 +10649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -10369,8 +10717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -10402,8 +10752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -10468,8 +10820,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -10501,8 +10855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -10780,8 +11136,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -10813,8 +11171,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10879,8 +11239,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10912,8 +11274,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10978,8 +11342,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -11011,8 +11377,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -11077,8 +11445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -11110,8 +11480,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -11341,8 +11713,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -11374,8 +11748,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -11440,8 +11816,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -11473,8 +11851,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -11539,8 +11919,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -11572,8 +11954,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -11638,8 +12022,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -11671,8 +12057,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -11737,8 +12125,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -11770,8 +12160,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -11836,8 +12228,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -11869,8 +12263,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -11935,8 +12331,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -11968,8 +12366,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -12034,8 +12434,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -12067,8 +12469,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -12133,8 +12537,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -12166,8 +12572,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -12232,8 +12640,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -12265,8 +12675,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -12331,8 +12743,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -12364,8 +12778,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -12430,8 +12846,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -12463,8 +12881,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -12529,8 +12949,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -12562,8 +12984,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -12628,8 +13052,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -12661,8 +13087,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -12727,8 +13155,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -12760,8 +13190,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -12826,8 +13258,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -12859,8 +13293,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -12925,8 +13361,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -12958,8 +13396,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -13024,8 +13464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -13057,8 +13499,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -13123,8 +13567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -13156,8 +13602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -13222,8 +13670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -13255,8 +13705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -13321,8 +13773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -13354,8 +13808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -13420,8 +13876,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -13453,8 +13911,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -13519,8 +13979,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -13552,8 +14014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -13618,8 +14082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -13651,8 +14117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -13717,8 +14185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -13750,8 +14220,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -13816,8 +14288,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -13849,8 +14323,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -13915,8 +14391,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -13948,8 +14426,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -14014,8 +14494,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -14047,8 +14529,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -14113,8 +14597,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -14146,8 +14632,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -14212,8 +14700,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -14245,8 +14735,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -14311,8 +14803,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -14344,8 +14838,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -14410,8 +14906,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -14443,8 +14941,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -14509,8 +15009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -14542,8 +15044,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -14608,8 +15112,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -14641,8 +15147,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -14707,8 +15215,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -14740,8 +15250,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -14806,8 +15318,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -14839,8 +15353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -14905,8 +15421,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -14938,8 +15456,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -15004,8 +15524,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -15037,8 +15559,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -15103,8 +15627,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -15136,8 +15662,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -15202,8 +15730,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -15235,8 +15765,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -15301,8 +15833,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -15334,8 +15868,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -15400,8 +15936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -15433,8 +15971,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -15499,8 +16039,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -15532,8 +16074,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -15598,8 +16142,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -15631,8 +16177,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -15697,8 +16245,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -15730,8 +16280,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -15796,8 +16348,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -15829,8 +16383,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -15895,8 +16451,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -15928,8 +16486,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -15994,8 +16554,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -16027,8 +16589,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -16093,8 +16657,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -16126,8 +16692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -16192,8 +16760,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -16225,8 +16795,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -16291,8 +16863,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -16324,8 +16898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>1</v>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -16390,8 +16966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -16423,8 +17001,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -16489,8 +17069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -16522,8 +17104,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -16588,8 +17172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -16621,8 +17207,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -16687,8 +17275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -16720,8 +17310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>1</v>
+      <c r="U56" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -16786,8 +17378,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -16819,8 +17413,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -16872,10 +17468,8 @@
           <t>FEDERAL PELL GRANT PROGRAM</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="J58" t="n">
+        <v>0</v>
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
@@ -16887,8 +17481,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -16920,8 +17516,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -16986,8 +17584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -17019,8 +17619,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -17085,8 +17687,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -17118,8 +17722,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -17184,8 +17790,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -17217,8 +17825,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -17270,10 +17880,8 @@
           <t>Federal Perkins Loan Program - Loan Cancellations</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="J62" t="n">
+        <v>0</v>
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
@@ -17285,8 +17893,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -17318,8 +17928,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -17384,8 +17996,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -17417,8 +18031,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -17483,8 +18099,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -17516,8 +18134,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -17582,8 +18202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -17615,8 +18237,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>1</v>
+      <c r="U65" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -17681,8 +18305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -17714,8 +18340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>1</v>
+      <c r="U66" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -17780,8 +18408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -17813,8 +18443,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -17879,8 +18511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -17912,8 +18546,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -17978,8 +18614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -18011,8 +18649,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -18077,8 +18717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -18110,8 +18752,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -18176,8 +18820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -18209,8 +18855,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -18275,8 +18923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -18308,8 +18958,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -18374,8 +19026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -18407,8 +19061,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -18473,8 +19129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -18506,8 +19164,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -18572,8 +19232,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -18605,8 +19267,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -18671,8 +19335,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -18704,8 +19370,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -18770,8 +19438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -18803,8 +19473,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -19178,8 +19850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -19211,8 +19885,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -19277,8 +19953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -19310,8 +19988,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19376,8 +20056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -19409,8 +20091,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -19475,8 +20159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -19508,8 +20194,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -19574,8 +20262,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -19607,8 +20297,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -19673,8 +20365,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -19706,8 +20400,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -19772,8 +20468,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -19805,8 +20503,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -19871,8 +20571,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -19904,8 +20606,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -19970,8 +20674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -20003,8 +20709,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -20069,8 +20777,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -20102,8 +20812,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -20168,8 +20880,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -20201,8 +20915,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -20267,8 +20983,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -20300,8 +21018,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -20366,8 +21086,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -20399,8 +21121,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -20465,8 +21189,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -20498,8 +21224,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -20564,8 +21292,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -20597,8 +21327,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -20663,8 +21395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -20696,8 +21430,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -20762,8 +21498,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -20795,8 +21533,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -20861,8 +21601,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -20894,8 +21636,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -20960,8 +21704,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -20993,8 +21739,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -21059,8 +21807,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -21092,8 +21842,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -21158,8 +21910,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -21191,8 +21945,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -21456,8 +22212,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -21489,8 +22247,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -21555,8 +22315,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>4678397</v>
@@ -21591,8 +22353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -21657,8 +22421,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>1000716</v>
@@ -21693,8 +22459,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -21922,8 +22690,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -21955,8 +22725,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22021,8 +22793,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -22054,8 +22828,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -22120,8 +22896,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -22153,8 +22931,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -22219,8 +22999,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -22252,8 +23034,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -22483,8 +23267,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>254000</v>
@@ -22519,8 +23305,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22744,8 +23532,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>63433522</v>
@@ -22780,8 +23570,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22846,8 +23638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>167863241</v>
@@ -22882,8 +23676,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -22948,8 +23744,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>48767811</v>
@@ -22984,8 +23782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -23050,8 +23850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>10637424</v>
@@ -23086,8 +23888,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -23152,8 +23956,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>239099</v>
@@ -23188,8 +23994,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -23254,8 +24062,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N7" t="n">
         <v>163788</v>
@@ -23290,8 +24100,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -23356,8 +24168,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v>-87891</v>
@@ -23392,8 +24206,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -23458,8 +24274,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>27910</v>
@@ -23494,8 +24312,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -23560,8 +24380,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>-9777</v>
@@ -23596,8 +24418,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -23662,8 +24486,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>698469</v>
@@ -23698,8 +24524,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -23764,8 +24592,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>3794392</v>
@@ -23800,8 +24630,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -23866,8 +24698,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v>1149321</v>
@@ -23902,8 +24736,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -24149,8 +24985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -24182,8 +25020,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -24248,8 +25088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -24281,8 +25123,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -24347,8 +25191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -24380,8 +25226,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -24446,8 +25294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -24479,8 +25329,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -24545,8 +25397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -24578,8 +25432,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -24644,8 +25500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -24677,8 +25535,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -24743,8 +25603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -24776,8 +25638,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -24842,8 +25706,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -24875,8 +25741,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -24941,8 +25809,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -24974,8 +25844,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -25040,8 +25912,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -25073,8 +25947,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -25139,8 +26015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -25172,8 +26050,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -25238,8 +26118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -25271,8 +26153,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -25337,8 +26221,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -25370,8 +26256,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -25436,8 +26324,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -25469,8 +26359,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -25535,8 +26427,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -25568,8 +26462,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -25634,8 +26530,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -25667,8 +26565,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -25733,8 +26633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -25766,8 +26668,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -25832,8 +26736,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -25865,8 +26771,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -25931,8 +26839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -25964,8 +26874,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -26030,8 +26942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -26063,8 +26977,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -26129,8 +27045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -26162,8 +27080,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -26228,8 +27148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -26261,8 +27183,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -26327,8 +27251,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -26360,8 +27286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -26426,8 +27354,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -26459,8 +27389,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -26525,8 +27457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -26558,8 +27492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -26624,8 +27560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -26657,8 +27595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -26723,8 +27663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -26756,8 +27698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -26822,8 +27766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -26855,8 +27801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -26921,8 +27869,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -26954,8 +27904,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -27020,8 +27972,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -27053,8 +28007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -27119,8 +28075,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -27152,8 +28110,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -27218,8 +28178,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -27251,8 +28213,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -27317,8 +28281,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -27350,8 +28316,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -27416,8 +28384,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -27449,8 +28419,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -27515,8 +28487,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -27548,8 +28522,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -27614,8 +28590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -27647,8 +28625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -27713,8 +28693,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -27746,8 +28728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -27812,8 +28796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -27845,8 +28831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -27911,8 +28899,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -27944,8 +28934,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -28010,8 +29002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -28043,8 +29037,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -28109,8 +29105,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -28142,8 +29140,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -28208,8 +29208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -28241,8 +29243,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -28307,8 +29311,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -28340,8 +29346,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -28649,8 +29657,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -28682,8 +29692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -28748,8 +29760,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -28781,8 +29795,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -28847,8 +29863,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -28880,8 +29898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -28946,8 +29966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -28979,8 +30001,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -29045,8 +30069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -29078,8 +30104,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -29144,8 +30172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -29177,8 +30207,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -29243,8 +30275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -29276,8 +30310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -29342,8 +30378,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -29375,8 +30413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -29441,8 +30481,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -29474,8 +30516,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -29540,8 +30584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -29573,8 +30619,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -29639,8 +30687,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -29672,8 +30722,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -29917,8 +30969,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -29950,8 +31004,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30016,8 +31072,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30049,8 +31107,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30115,8 +31175,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -30148,8 +31210,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30214,8 +31278,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -30247,8 +31313,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -30313,8 +31381,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -30346,8 +31416,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -30412,8 +31484,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -30445,8 +31519,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -30511,8 +31587,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -30544,8 +31622,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -30610,8 +31690,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -30643,8 +31725,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -30709,8 +31793,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -30742,8 +31828,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -30808,8 +31896,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -30841,8 +31931,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -30907,8 +31999,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -30940,8 +32034,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -31006,8 +32102,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -31039,8 +32137,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -31105,8 +32205,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -31138,8 +32240,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -31204,8 +32308,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -31237,8 +32343,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -31303,8 +32411,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -31336,8 +32446,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -31402,8 +32514,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -31435,8 +32549,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -31501,8 +32617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -31534,8 +32652,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -31600,8 +32720,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -31633,8 +32755,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -31699,8 +32823,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -31732,8 +32858,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -31798,8 +32926,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -31831,8 +32961,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -31897,8 +33029,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -31930,8 +33064,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -31996,8 +33132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -32029,8 +33167,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -32095,8 +33235,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -32128,8 +33270,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -32194,8 +33338,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -32227,8 +33373,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -32293,8 +33441,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -32326,8 +33476,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -32392,8 +33544,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -32425,8 +33579,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -32491,8 +33647,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -32524,8 +33682,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -32590,8 +33750,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -32623,8 +33785,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -32689,8 +33853,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -32722,8 +33888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -32788,8 +33956,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -32821,8 +33991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -32887,8 +34059,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -32920,8 +34094,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -32986,8 +34162,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -33019,8 +34197,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -33085,8 +34265,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -33118,8 +34300,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -33184,8 +34368,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -33217,8 +34403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -33283,8 +34471,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -33316,8 +34506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -33382,8 +34574,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -33415,8 +34609,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -33481,8 +34677,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -33514,8 +34712,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -33580,8 +34780,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -33613,8 +34815,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -33679,8 +34883,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -33712,8 +34918,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -33778,8 +34986,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -33811,8 +35021,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -33877,8 +35089,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -33910,8 +35124,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -33976,8 +35192,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -34009,8 +35227,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -34075,8 +35295,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -34108,8 +35330,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -34174,8 +35398,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -34207,8 +35433,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -34260,10 +35488,8 @@
           <t>FEDERAL PELL GRANT PROGRAM</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="J46" t="n">
+        <v>0</v>
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
@@ -34275,8 +35501,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -34308,8 +35536,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -34374,8 +35604,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -34407,8 +35639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -34473,8 +35707,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -34506,8 +35742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -34572,8 +35810,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -34605,8 +35845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -34658,10 +35900,8 @@
           <t>Federal Perkins Loan Program - Loan Cancellations</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="J50" t="n">
+        <v>0</v>
       </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
@@ -34673,8 +35913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -34706,8 +35948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -34772,8 +36016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -34805,8 +36051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -34871,8 +36119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -34904,8 +36154,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -34970,8 +36222,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -35003,8 +36257,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -35069,8 +36325,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -35102,8 +36360,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -35168,8 +36428,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -35201,8 +36463,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -35267,8 +36531,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -35300,8 +36566,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -35366,8 +36634,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -35399,8 +36669,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -35465,8 +36737,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -35498,8 +36772,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -35564,8 +36840,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -35597,8 +36875,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -35663,8 +36943,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -35696,8 +36978,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -35762,8 +37046,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -35795,8 +37081,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -35861,8 +37149,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -35894,8 +37184,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -35960,8 +37252,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -35993,8 +37287,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -36340,8 +37636,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -36373,8 +37671,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -36439,8 +37739,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -36472,8 +37774,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -36538,8 +37842,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -36571,8 +37877,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -36637,8 +37945,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -36670,8 +37980,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -36736,8 +38048,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -36769,8 +38083,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -36835,8 +38151,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -36868,8 +38186,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -36934,8 +38254,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -36967,8 +38289,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -37033,8 +38357,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -37066,8 +38392,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -37132,8 +38460,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -37165,8 +38495,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -37231,8 +38563,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -37264,8 +38598,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -37330,8 +38666,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -37363,8 +38701,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -37429,8 +38769,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -37462,8 +38804,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -37528,8 +38872,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -37561,8 +38907,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -37627,8 +38975,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -37660,8 +39010,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -37726,8 +39078,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -37759,8 +39113,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -37825,8 +39181,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -37858,8 +39216,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -37924,8 +39284,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -37957,8 +39319,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -38023,8 +39387,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N19" t="n">
         <v>1719516</v>
@@ -38059,8 +39425,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -38125,8 +39493,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N20" t="n">
         <v>-43207</v>
@@ -38161,8 +39531,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -38227,8 +39599,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -38260,8 +39634,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -38326,8 +39702,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -38359,8 +39737,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -38425,8 +39805,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -38458,8 +39840,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -38524,8 +39908,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -38557,8 +39943,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -38623,8 +40011,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -38656,8 +40046,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -38722,8 +40114,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -38755,8 +40149,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -38821,8 +40217,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>1</v>
+      <c r="M27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N27" t="n">
         <v>46837</v>
@@ -38857,8 +40255,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -38923,8 +40323,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -38956,8 +40358,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -39022,8 +40426,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -39055,8 +40461,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
